--- a/Results/expo_impo_agriculture.xlsx
+++ b/Results/expo_impo_agriculture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Documents\Repositorios\MIP_OECD\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68936806-B8A6-4D49-9E94-2D0ED37768B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65167251-4C57-4ECF-BEF0-AD0AE98E5DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,14 +164,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,10 +472,18 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G29" activeCellId="1" sqref="D2:D29 G2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -493,22 +512,22 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>52947495532</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5862957635</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.11073153840593999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>60537962059</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2836341196</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>4.6852274168656602E-2</v>
       </c>
     </row>
@@ -516,22 +535,22 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>51076603549</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5162772340</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.101079006458351</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>58672860908</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2887710330</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>4.9217138644866397E-2</v>
       </c>
     </row>
@@ -539,22 +558,22 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>47945909310</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>4488804619</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>9.3622264831335206E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>50259540356</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2148328021</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>4.27446810253913E-2</v>
       </c>
     </row>
@@ -562,22 +581,22 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>54993159648</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4448165570</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>8.08857974059283E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>56976350170</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2190239846</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>3.8441210071634903E-2</v>
       </c>
     </row>
@@ -585,22 +604,22 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>58032294243</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>5228696459</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>9.0099771639317899E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>56569020182</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1800624899</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>3.1830583121412299E-2</v>
       </c>
     </row>
@@ -608,22 +627,22 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>60147158103</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>5287695161</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>8.7912635073214895E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>48274763553</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1769108325</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>3.6646649197105398E-2</v>
       </c>
     </row>
@@ -631,22 +650,22 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>72776746690</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7011078659</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>9.6336796818692796E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>49307163152</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>2216976604</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>4.4962566537557397E-2</v>
       </c>
     </row>
@@ -654,22 +673,22 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>95121672369</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>9317399061</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>9.7952431122694694E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>63813636668</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>1796940770</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>2.8159197059225E-2</v>
       </c>
     </row>
@@ -677,22 +696,22 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>118597835407</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>9471283205</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>7.9860506496571199E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>74692215554</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1732596059</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>2.3196474306581401E-2</v>
       </c>
     </row>
@@ -700,22 +719,22 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>137581151209</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>10635782378</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>7.7305519575447804E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>92531096870</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2325600329</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>2.5133175847545701E-2</v>
       </c>
     </row>
@@ -723,22 +742,22 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>159816383833</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>14224210462</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>8.9003455846326601E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>122041949120</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>3167661938</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>2.5955517433479701E-2</v>
       </c>
     </row>
@@ -746,22 +765,22 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>195764624177</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>19269009054</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>9.8429474349655696E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>174707087626</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>4242664918</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>2.4284446473530501E-2</v>
       </c>
     </row>
@@ -769,22 +788,22 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>151791674186</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>19052523823</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.12551758141657801</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>129397611523</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>3069068134</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>2.3718120434197399E-2</v>
       </c>
     </row>
@@ -792,22 +811,22 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>200434134826</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>21566427621</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.10759857665822301</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>183336964846</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>4269896284</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>2.32898820354457E-2</v>
       </c>
     </row>
@@ -815,22 +834,22 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>253666309507</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>31499972883</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.124178780162885</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>227969756701</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>5503493878</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>2.4141333296320799E-2</v>
       </c>
     </row>
@@ -838,22 +857,22 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>239952538158</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>33512254507</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.13966201301414599</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>225166426069</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>4877576591</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>2.1662095349443099E-2</v>
       </c>
     </row>
@@ -861,22 +880,22 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>232544255606</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>37585440585</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.16162704379454099</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>241500886459</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>5769319145</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>2.38894325796997E-2</v>
       </c>
     </row>
@@ -884,22 +903,22 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>220923236838</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>37284568001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.16876707282874101</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>230823018796</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>5024003565</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>2.17656089553191E-2</v>
       </c>
     </row>
@@ -907,22 +926,22 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>186782355063</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>35303432419</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.189008391114313</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>173104259077</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>3666978153</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>2.1183639111784398E-2</v>
       </c>
     </row>
@@ -930,22 +949,22 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>179526129214</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>31178971994</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0.17367372722014099</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>139321357653</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>4879140273</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>3.5020763185154999E-2</v>
       </c>
     </row>
@@ -953,22 +972,22 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>214988108353</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>38571904262</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.17941412926275399</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>158951444003</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>4208925554</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>2.6479316249058801E-2</v>
       </c>
     </row>
@@ -976,22 +995,22 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>231889523399</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>45697315725</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.197065029308681</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>185321983502</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>4181533718</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>2.25636140892852E-2</v>
       </c>
     </row>
@@ -999,22 +1018,22 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>221126807647</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>43046834252</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0.19467035548543099</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>185927967580</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>4317700993</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>2.3222439578070499E-2</v>
       </c>
     </row>
@@ -1022,22 +1041,22 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>209180241655</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>45154555683</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>0.21586434419304901</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>158786824879</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>4116884297</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>2.59271151755644E-2</v>
       </c>
     </row>
@@ -1045,22 +1064,22 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>280814577460</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>55140716868</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>0.19635988048325001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>219408049180</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>5360487433</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>2.4431589693422399E-2</v>
       </c>
     </row>
@@ -1068,22 +1087,22 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>334136038220</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>74787064930</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>0.22382220525628899</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>272610686946</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>5696821821</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>2.0897279871234301E-2</v>
       </c>
     </row>
@@ -1091,22 +1110,22 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>339695766008</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>81485341473</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>0.23987741275256599</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>240792839224</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>4500439992</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>1.8690090645982298E-2</v>
       </c>
     </row>
@@ -1114,22 +1133,22 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>50506357171</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>9132240979</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>0.180813693374893</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>38564384726</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>919706658</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>2.3848601877989699E-2</v>
       </c>
     </row>
